--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IFCD38\practicas\MOC_20483_Tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C004077-B946-4B5A-A0B0-623784D57E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B891371-839F-4C1D-B336-7379B8DFE955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="14290" windowWidth="21820" windowHeight="14020" xr2:uid="{3CCEDD73-EA87-4712-B1F9-F9FD1938C7DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3CCEDD73-EA87-4712-B1F9-F9FD1938C7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="26">
   <si>
     <t>Tarea 2</t>
   </si>
@@ -67,13 +67,49 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>Tarea 3</t>
+  </si>
+  <si>
+    <t>Tarea 4</t>
+  </si>
+  <si>
+    <t>Tarea 5</t>
+  </si>
+  <si>
+    <t>Tarea 6</t>
+  </si>
+  <si>
+    <t>Tarea 7</t>
+  </si>
+  <si>
+    <t>Módulos 5 y 6</t>
+  </si>
+  <si>
+    <t>Lab 5</t>
+  </si>
+  <si>
+    <t>Lab 6</t>
+  </si>
+  <si>
+    <t>Mod 5 L1</t>
+  </si>
+  <si>
+    <t>Mod 6 L1</t>
+  </si>
+  <si>
+    <t>Mod 6 L2</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +117,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,12 +167,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,168 +493,784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70E519-8D15-415F-BA4B-DFF70A091712}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2"/>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="24">
+    <mergeCell ref="A17:I17"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IFCD38\practicas\MOC_20483_Tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B891371-839F-4C1D-B336-7379B8DFE955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E09C44F-B52C-4A19-AB1E-9974D58E8DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3CCEDD73-EA87-4712-B1F9-F9FD1938C7DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="40">
   <si>
     <t>Tarea 2</t>
   </si>
@@ -103,6 +103,48 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Módulos 7 y 8</t>
+  </si>
+  <si>
+    <t>Mod 8 L1</t>
+  </si>
+  <si>
+    <t>Mod 7 L2</t>
+  </si>
+  <si>
+    <t>Mod 7 L1</t>
+  </si>
+  <si>
+    <t>Lab 7</t>
+  </si>
+  <si>
+    <t>Lab 8</t>
+  </si>
+  <si>
+    <t>Módulos 9 y 10</t>
+  </si>
+  <si>
+    <t>Lab 9</t>
+  </si>
+  <si>
+    <t>Lab 10</t>
+  </si>
+  <si>
+    <t>Módulos 11 y 12</t>
+  </si>
+  <si>
+    <t>Lab 11</t>
+  </si>
+  <si>
+    <t>Lab 12</t>
+  </si>
+  <si>
+    <t>Módulos 13</t>
+  </si>
+  <si>
+    <t>Lab 13</t>
   </si>
 </sst>
 </file>
@@ -126,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -177,6 +225,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,280 +547,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70E519-8D15-415F-BA4B-DFF70A091712}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -774,501 +853,513 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1"/>
+      <c r="I18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1"/>
+      <c r="I26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1"/>
+      <c r="I34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="1"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IFCD38\practicas\MOC_20483_Tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E09C44F-B52C-4A19-AB1E-9974D58E8DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F243036D-65C5-4039-8CA5-77932486F5F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3CCEDD73-EA87-4712-B1F9-F9FD1938C7DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="41">
   <si>
     <t>Tarea 2</t>
   </si>
@@ -132,19 +132,22 @@
     <t>Lab 10</t>
   </si>
   <si>
-    <t>Módulos 11 y 12</t>
-  </si>
-  <si>
-    <t>Lab 11</t>
-  </si>
-  <si>
-    <t>Lab 12</t>
-  </si>
-  <si>
-    <t>Módulos 13</t>
-  </si>
-  <si>
     <t>Lab 13</t>
+  </si>
+  <si>
+    <t>Módulos 11,12 y13</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Mod 9 L1</t>
+  </si>
+  <si>
+    <t>Mod 10 L2</t>
+  </si>
+  <si>
+    <t>Mod 10 L3</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +181,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,22 +212,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -549,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70E519-8D15-415F-BA4B-DFF70A091712}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,21 +563,21 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
@@ -712,34 +706,34 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
@@ -860,34 +854,34 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
@@ -928,12 +922,18 @@
       <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
@@ -948,13 +948,21 @@
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
@@ -969,13 +977,21 @@
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
@@ -989,37 +1005,34 @@
       <c r="K23" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
@@ -1046,7 +1059,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1063,7 +1076,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1080,7 +1093,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1109,37 +1122,35 @@
       <c r="K31" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
@@ -1166,52 +1177,64 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
@@ -1222,42 +1245,37 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>5</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="C42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
@@ -1336,6 +1354,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="I2:K2"/>
@@ -1345,21 +1378,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IFCD38\practicas\MOC_20483_Tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F243036D-65C5-4039-8CA5-77932486F5F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49660F3A-0BDD-4786-919D-B3D2A2A58411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3CCEDD73-EA87-4712-B1F9-F9FD1938C7DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
   <si>
     <t>Tarea 2</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Lab 13</t>
   </si>
   <si>
-    <t>Módulos 11,12 y13</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -148,6 +145,30 @@
   </si>
   <si>
     <t>Mod 10 L3</t>
+  </si>
+  <si>
+    <t>Mod 11 L1</t>
+  </si>
+  <si>
+    <t>Módulos 11 y 12</t>
+  </si>
+  <si>
+    <t>Mod 12 L1</t>
+  </si>
+  <si>
+    <t>Mod 10 L4</t>
+  </si>
+  <si>
+    <t>Lab 11</t>
+  </si>
+  <si>
+    <t>Lab 12</t>
+  </si>
+  <si>
+    <t>Módulos 13</t>
+  </si>
+  <si>
+    <t>Mod 13 L2</t>
   </si>
 </sst>
 </file>
@@ -543,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70E519-8D15-415F-BA4B-DFF70A091712}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,17 +1026,17 @@
       <c r="K23" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
@@ -1059,52 +1080,82 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
@@ -1115,15 +1166,13 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>17</v>
@@ -1139,16 +1188,18 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
@@ -1177,69 +1228,57 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1264,7 +1303,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C42" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1298,7 +1337,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1312,9 +1351,7 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
@@ -1327,14 +1364,10 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C46" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IFCD38\practicas\MOC_20483_Tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49660F3A-0BDD-4786-919D-B3D2A2A58411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD33728-88CF-4AD2-A995-0A428671F7A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3CCEDD73-EA87-4712-B1F9-F9FD1938C7DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="50">
   <si>
     <t>Tarea 2</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Mod 12 L1</t>
   </si>
   <si>
-    <t>Mod 10 L4</t>
-  </si>
-  <si>
     <t>Lab 11</t>
   </si>
   <si>
@@ -169,6 +166,15 @@
   </si>
   <si>
     <t>Mod 13 L2</t>
+  </si>
+  <si>
+    <t>Mod 13 L1</t>
+  </si>
+  <si>
+    <t>Mod 12 L2</t>
+  </si>
+  <si>
+    <t>Mod 12 L4</t>
   </si>
 </sst>
 </file>
@@ -233,19 +239,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,9 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70E519-8D15-415F-BA4B-DFF70A091712}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -584,21 +585,21 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
@@ -727,34 +728,34 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
@@ -875,34 +876,34 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
@@ -1026,34 +1027,34 @@
       <c r="K23" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
@@ -1174,34 +1175,34 @@
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
@@ -1230,57 +1231,93 @@
       <c r="C36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1289,32 +1326,32 @@
       <c r="K39" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
+      <c r="C42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
@@ -1339,26 +1376,44 @@
       <c r="C44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -1387,21 +1442,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="I2:K2"/>
@@ -1411,6 +1451,21 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
